--- a/Contas 2021.xlsx
+++ b/Contas 2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Windows.old\Users\Felipe Augusto\Documents\Felipe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Documents\GitHub\Teste_em_casa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D77CF-BFE8-411E-A779-70D5220828B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA31483-C3E7-4B54-A8C4-319EAF48EB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="18" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="20" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fev" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,8 @@
     <sheet name="junho20" sheetId="17" r:id="rId17"/>
     <sheet name="julho20" sheetId="18" r:id="rId18"/>
     <sheet name="agosto20" sheetId="19" r:id="rId19"/>
-    <sheet name="setembro" sheetId="20" r:id="rId20"/>
-    <sheet name="outubro" sheetId="21" r:id="rId21"/>
+    <sheet name="setembroOLD" sheetId="20" r:id="rId20"/>
+    <sheet name="outubroOLD" sheetId="21" r:id="rId21"/>
     <sheet name="novembrow" sheetId="22" r:id="rId22"/>
     <sheet name="dezembrow" sheetId="23" r:id="rId23"/>
     <sheet name="Janeiro" sheetId="24" r:id="rId24"/>
@@ -44,13 +44,15 @@
     <sheet name="junho" sheetId="29" r:id="rId29"/>
     <sheet name="julho" sheetId="30" r:id="rId30"/>
     <sheet name="agosto" sheetId="31" r:id="rId31"/>
+    <sheet name="setembro" sheetId="32" r:id="rId32"/>
+    <sheet name="outubro" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="262">
   <si>
     <t>ITEM</t>
   </si>
@@ -764,6 +766,78 @@
   </si>
   <si>
     <t>Agora</t>
+  </si>
+  <si>
+    <t>carro 3/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">short shopee 2/2 </t>
+  </si>
+  <si>
+    <t>anel 3/4</t>
+  </si>
+  <si>
+    <t>blusa4/4</t>
+  </si>
+  <si>
+    <t>emprestimo 2/3</t>
+  </si>
+  <si>
+    <t>suplemento 2/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dutas </t>
+  </si>
+  <si>
+    <t>pai 1/2</t>
+  </si>
+  <si>
+    <t>roupas c&amp;a 1/3</t>
+  </si>
+  <si>
+    <t>luminaria rafa</t>
+  </si>
+  <si>
+    <t>anel 4/4</t>
+  </si>
+  <si>
+    <t>pai 2/2</t>
+  </si>
+  <si>
+    <t>roupas c&amp;a 2/3</t>
+  </si>
+  <si>
+    <t>americanas 2/2</t>
+  </si>
+  <si>
+    <t>emprestimo 3/3</t>
+  </si>
+  <si>
+    <t>colchao 6/10</t>
+  </si>
+  <si>
+    <t>relogio</t>
+  </si>
+  <si>
+    <t>banco 1/4</t>
+  </si>
+  <si>
+    <t>banco 2/4</t>
+  </si>
+  <si>
+    <t>minox 1/4</t>
+  </si>
+  <si>
+    <t>minox 2/4</t>
+  </si>
+  <si>
+    <t>castanha</t>
+  </si>
+  <si>
+    <t>americanas 1/2 rafa</t>
+  </si>
+  <si>
+    <t>PNEU 1/12</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1070,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1068,7 +1142,6 @@
     <xf numFmtId="165" fontId="1" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1106,6 +1179,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="6" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1622,10 +1705,10 @@
       <c r="D17" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" s="4" t="s">
@@ -4962,7 +5045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7160,7 +7245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD627C-D5D2-4883-BEA9-E7C62A4C697F}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -8140,8 +8225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8847B47-AA82-4A2F-852B-1E82ACB71858}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8181,7 +8266,7 @@
       <c r="B2" s="17">
         <v>150</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -8191,14 +8276,14 @@
       <c r="B3" s="17">
         <v>88</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8209,12 +8294,12 @@
       <c r="B4" s="21">
         <v>450</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="3"/>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8225,7 +8310,7 @@
       <c r="B5" s="21">
         <v>70</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -8235,7 +8320,7 @@
       <c r="B6" s="17">
         <v>140</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -8245,24 +8330,24 @@
       <c r="B7" s="17">
         <v>36</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="3"/>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="Q7" s="31" t="s">
         <v>235</v>
       </c>
     </row>
@@ -8273,7 +8358,7 @@
       <c r="B8" s="17">
         <v>22</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="3"/>
       <c r="H8" s="16" t="s">
         <v>10</v>
@@ -8284,17 +8369,17 @@
       <c r="J8" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="32">
         <f>I8</f>
         <v>88</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="N8" s="32" t="s">
+      <c r="L8" s="32"/>
+      <c r="N8" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34">
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33">
         <v>33</v>
       </c>
     </row>
@@ -8305,7 +8390,7 @@
       <c r="B9" s="17">
         <v>65</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="3"/>
       <c r="H9" s="20" t="s">
         <v>12</v>
@@ -8317,18 +8402,18 @@
         <v>232</v>
       </c>
       <c r="K9" s="17">
-        <f t="shared" ref="K9:K18" si="0">I9</f>
+        <f t="shared" ref="K9:K11" si="0">I9</f>
         <v>85</v>
       </c>
       <c r="L9" s="17"/>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="44">
         <v>75</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -8337,7 +8422,7 @@
       <c r="B10" s="21">
         <v>96</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="3"/>
       <c r="H10" s="16" t="s">
         <v>138</v>
@@ -8350,17 +8435,17 @@
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="17">
-        <f t="shared" ref="L9:L18" si="1">I10</f>
+        <f t="shared" ref="L10:L16" si="1">I10</f>
         <v>140</v>
       </c>
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="33">
         <v>30</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -8381,14 +8466,14 @@
         <v>36</v>
       </c>
       <c r="L11" s="17"/>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34">
+      <c r="O11" s="33"/>
+      <c r="P11" s="33">
         <v>60</v>
       </c>
-      <c r="Q11" s="32"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -8397,7 +8482,7 @@
       <c r="B12" s="3">
         <v>33</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="3"/>
       <c r="H12" s="16" t="s">
         <v>48</v>
@@ -8413,14 +8498,14 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="N12" s="32" t="s">
+      <c r="N12" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="O12" s="34">
-        <v>30</v>
-      </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
+      <c r="O12" s="33">
+        <v>33</v>
+      </c>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -8429,7 +8514,7 @@
       <c r="B13" s="3">
         <v>80</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="3"/>
       <c r="H13" s="16" t="s">
         <v>183</v>
@@ -8445,23 +8530,23 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="N13" s="32" t="s">
+      <c r="N13" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="O13" s="34">
-        <v>25</v>
-      </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
+      <c r="O13" s="33">
+        <v>27</v>
+      </c>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>38</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="3"/>
       <c r="H14" s="20" t="s">
         <v>180</v>
@@ -8477,24 +8562,24 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="N14" s="46" t="s">
+      <c r="N14" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="33">
         <f>SUM(O8:O13)</f>
-        <v>160</v>
-      </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
+        <v>165</v>
+      </c>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>21</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="3"/>
       <c r="H15" s="7" t="s">
         <v>228</v>
@@ -8512,10 +8597,10 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="42">
         <v>75</v>
       </c>
       <c r="C16" s="9"/>
@@ -8536,13 +8621,13 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="42">
         <v>36</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="3"/>
       <c r="H17" s="7" t="s">
         <v>229</v>
@@ -8554,7 +8639,7 @@
         <v>232</v>
       </c>
       <c r="K17" s="17">
-        <f t="shared" si="0"/>
+        <f>I17</f>
         <v>37</v>
       </c>
       <c r="L17" s="17"/>
@@ -8578,13 +8663,10 @@
         <v>232</v>
       </c>
       <c r="K18" s="17">
-        <f t="shared" si="0"/>
+        <f>I18</f>
         <v>108.5</v>
       </c>
-      <c r="L18" s="17">
-        <f t="shared" si="1"/>
-        <v>108.5</v>
-      </c>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -8599,13 +8681,9 @@
         <f>SUM(I8:I18)</f>
         <v>795.5</v>
       </c>
-      <c r="K19" s="4">
-        <f t="shared" ref="J19:L19" si="2">SUM(K8:K18)</f>
-        <v>354.5</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="2"/>
-        <v>549.5</v>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17">
+        <v>-140</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -8617,6 +8695,14 @@
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="7"/>
+      <c r="K20" s="4">
+        <f>SUM(K8:K19)</f>
+        <v>354.5</v>
+      </c>
+      <c r="L20" s="4">
+        <f>SUM(L8:L19)</f>
+        <v>301</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -8697,6 +8783,652 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3C9ACC-0BAF-45C9-AE6A-29FAA6777205}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="17">
+        <v>150</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17">
+        <v>88</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="21">
+        <v>450</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21">
+        <v>70</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="17">
+        <v>140</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="17">
+        <v>36</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="17">
+        <v>22</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="17">
+        <v>65</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="21">
+        <v>96</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="3">
+        <v>75</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="3">
+        <v>80</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="42">
+        <v>38</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="42">
+        <v>21</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="42">
+        <v>75</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="3">
+        <v>61</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="3">
+        <v>108</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="3">
+        <v>47</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="3">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="3">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="3">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3">
+        <v>-450</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3">
+        <v>-75</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3">
+        <v>-60</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="3">
+        <v>37</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="3">
+        <v>52</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="3">
+        <v>25</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="11">
+        <f>SUM(B2:B34)</f>
+        <v>1438</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ED4AF-7416-4D2A-AA83-6B91C1FCFA43}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="17">
+        <v>150</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17">
+        <v>88</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="21">
+        <v>450</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21">
+        <v>70</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="17">
+        <v>36</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="17">
+        <v>22</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="17">
+        <v>65</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="21">
+        <v>96</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="3">
+        <v>75</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="3">
+        <v>80</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="42">
+        <v>38</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="42">
+        <v>75</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="3">
+        <v>30</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="3">
+        <v>47</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="3">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="3">
+        <v>52</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="11">
+        <f>SUM(B2:B28)</f>
+        <v>1466</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/Contas 2021.xlsx
+++ b/Contas 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Documents\GitHub\Teste_em_casa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA31483-C3E7-4B54-A8C4-319EAF48EB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2406B5-A75B-4283-9D7E-A1DDA575A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="20" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="261">
   <si>
     <t>ITEM</t>
   </si>
@@ -825,19 +825,16 @@
     <t>banco 2/4</t>
   </si>
   <si>
-    <t>minox 1/4</t>
-  </si>
-  <si>
-    <t>minox 2/4</t>
-  </si>
-  <si>
     <t>castanha</t>
   </si>
   <si>
     <t>americanas 1/2 rafa</t>
   </si>
   <si>
-    <t>PNEU 1/12</t>
+    <t>PNEU 1/4</t>
+  </si>
+  <si>
+    <t>minox 1/2</t>
   </si>
 </sst>
 </file>
@@ -8226,7 +8223,7 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8788,10 +8785,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3C9ACC-0BAF-45C9-AE6A-29FAA6777205}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8853,7 +8850,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="3"/>
@@ -9026,7 +9023,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B23" s="3">
         <v>25</v>
@@ -9049,7 +9046,7 @@
         <v>254</v>
       </c>
       <c r="B25" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="3"/>
@@ -9079,12 +9076,8 @@
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B29" s="3">
-        <v>37</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="3"/>
       <c r="C29" s="9"/>
       <c r="D29" s="3"/>
     </row>
@@ -9100,17 +9093,17 @@
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B31" s="3">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B32" s="3">
         <v>25</v>
@@ -9120,30 +9113,44 @@
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" s="3">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3">
+        <v>-550</v>
+      </c>
       <c r="C34" s="9"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="11">
-        <f>SUM(B2:B34)</f>
-        <v>1438</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="B37" s="11">
+        <f>SUM(B2:B36)</f>
+        <v>1052</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -9155,7 +9162,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9217,7 +9224,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="21">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="3"/>
@@ -9354,10 +9361,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B21" s="3">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="3"/>
@@ -9422,7 +9429,7 @@
       </c>
       <c r="B29" s="11">
         <f>SUM(B2:B28)</f>
-        <v>1466</v>
+        <v>1490</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>

--- a/Contas 2021.xlsx
+++ b/Contas 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Documents\GitHub\Teste_em_casa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2406B5-A75B-4283-9D7E-A1DDA575A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1589652D-15C0-426C-B4AA-6D5C9DCCF3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="20" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="20" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fev" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="274">
   <si>
     <t>ITEM</t>
   </si>
@@ -835,6 +835,45 @@
   </si>
   <si>
     <t>minox 1/2</t>
+  </si>
+  <si>
+    <t>almoço gIRA</t>
+  </si>
+  <si>
+    <t>tatto bia</t>
+  </si>
+  <si>
+    <t>PAI</t>
+  </si>
+  <si>
+    <t>RAFA</t>
+  </si>
+  <si>
+    <t>MEU</t>
+  </si>
+  <si>
+    <t>TOTAL DAS COLUNAS</t>
+  </si>
+  <si>
+    <t>DIA 5</t>
+  </si>
+  <si>
+    <t>DIA 10</t>
+  </si>
+  <si>
+    <t>DIA 15 / NET DIA 5</t>
+  </si>
+  <si>
+    <t>25?</t>
+  </si>
+  <si>
+    <t>lanche rafa dia 3/09</t>
+  </si>
+  <si>
+    <t>rappi vita d</t>
+  </si>
+  <si>
+    <t>PNEU 2/4</t>
   </si>
 </sst>
 </file>
@@ -966,7 +1005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1054,6 +1093,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1067,7 +1193,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1185,7 +1311,30 @@
     <xf numFmtId="164" fontId="1" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1702,10 +1851,10 @@
       <c r="D17" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L30" s="4" t="s">
@@ -8223,7 +8372,7 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8785,10 +8934,845 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3C9ACC-0BAF-45C9-AE6A-29FAA6777205}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:Q40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="17">
+        <v>150</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="3"/>
+      <c r="G2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17">
+        <v>88</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="17">
+        <v>88</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="M3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="21">
+        <v>450</v>
+      </c>
+      <c r="C4" s="47"/>
+      <c r="D4" s="3"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21">
+        <v>75</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="21">
+        <v>35</v>
+      </c>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="M5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="21">
+        <v>500</v>
+      </c>
+      <c r="Q5">
+        <v>96.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="17">
+        <v>140</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="9"/>
+      <c r="G6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="17">
+        <v>140</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="Q6">
+        <v>21.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="17">
+        <v>36</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="3"/>
+      <c r="G7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="17">
+        <v>36</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
+      <c r="Q7">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="17">
+        <v>22</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="3"/>
+      <c r="G8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="17">
+        <v>22</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="17"/>
+      <c r="Q8">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="17">
+        <v>65</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="3"/>
+      <c r="G9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="17">
+        <v>65</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="17"/>
+      <c r="Q9">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="21">
+        <v>96</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="3"/>
+      <c r="G10" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="21">
+        <v>97</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="Q10">
+        <v>88.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="3">
+        <v>75</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="3"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="3"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="Q11">
+        <v>108.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="3"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="3"/>
+      <c r="M12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="N12" s="3">
+        <v>75</v>
+      </c>
+      <c r="Q12">
+        <v>39.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="3">
+        <v>80</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="3"/>
+      <c r="G13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="3">
+        <v>80</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="3"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="3"/>
+      <c r="Q13">
+        <v>61.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="42">
+        <v>38</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="3"/>
+      <c r="G14" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="42">
+        <v>38</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="3"/>
+      <c r="Q14">
+        <v>36.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="42">
+        <v>21</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="3"/>
+      <c r="G15" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="H15" s="42">
+        <v>21</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="Q15">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="42">
+        <v>75</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="3"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42">
+        <v>-21</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="42">
+        <v>75</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="Q16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="3"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="3">
+        <v>30</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="Q17">
+        <v>53.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="3">
+        <v>60</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="3"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K18" s="3">
+        <v>60</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="3"/>
+      <c r="Q18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="3">
+        <v>37</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="3">
+        <v>40</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="3"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="3"/>
+      <c r="Q19">
+        <v>48.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="3">
+        <v>61</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="3"/>
+      <c r="G20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H20" s="3">
+        <v>62</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="3"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="3"/>
+      <c r="Q20">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" s="3">
+        <v>108</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3"/>
+      <c r="G21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="3">
+        <v>108</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="3"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="3"/>
+      <c r="Q21">
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B22" s="3">
+        <v>47</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K22" s="3">
+        <v>47</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="3"/>
+      <c r="Q22">
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="3">
+        <v>25</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="3">
+        <v>25</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="3"/>
+      <c r="Q23">
+        <f>SUM(Q5:Q22)</f>
+        <v>1210.6300000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="3">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="3">
+        <v>37</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+      <c r="G25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" s="3">
+        <v>37</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="3"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="3">
+        <v>-450</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="3"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="3"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="3">
+        <v>-75</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="3"/>
+      <c r="G27" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H27" s="3">
+        <v>30</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="3"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3">
+        <v>-60</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3"/>
+      <c r="G28" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="3">
+        <v>48</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="3"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="3"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="3"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="3">
+        <v>52</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="3"/>
+      <c r="G30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H30" s="3">
+        <v>54</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="3"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="3">
+        <v>49</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="3"/>
+      <c r="G31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" s="3">
+        <v>49</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="3"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" s="3">
+        <v>48</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="3"/>
+      <c r="G32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="3">
+        <v>48</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="3"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" s="3">
+        <v>220</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="3"/>
+      <c r="G33" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H33" s="3">
+        <v>218</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="3"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3">
+        <v>-550</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="3"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="50"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="50"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="50"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3"/>
+      <c r="G35" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="H35" s="60"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="K35" s="57"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="N35" s="59"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3"/>
+      <c r="H36" s="54"/>
+      <c r="K36" s="52"/>
+      <c r="N36" s="52"/>
+    </row>
+    <row r="37" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="11">
+        <f>SUM(B2:B36)</f>
+        <v>1075</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="53">
+        <f>SUM(H5:H36)</f>
+        <v>1207</v>
+      </c>
+      <c r="J37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="53">
+        <f>SUM(K2:K36)</f>
+        <v>237</v>
+      </c>
+      <c r="M37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="53">
+        <f>SUM(N3:N36)</f>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="58">
+        <f>+SUM(H37,K37,N37)</f>
+        <v>2019</v>
+      </c>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="J35:K35"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ED4AF-7416-4D2A-AA83-6B91C1FCFA43}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8856,12 +9840,8 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="17">
-        <v>140</v>
-      </c>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="48"/>
       <c r="D6" s="9"/>
     </row>
@@ -8897,17 +9877,17 @@
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="B10" s="21">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B11" s="3">
         <v>75</v>
@@ -8942,376 +9922,6 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" s="42">
-        <v>21</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="B16" s="42">
-        <v>75</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B17" s="3">
-        <v>30</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="3">
-        <v>60</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B19" s="3">
-        <v>37</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="3">
-        <v>61</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" s="3">
-        <v>108</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B22" s="3">
-        <v>47</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B23" s="3">
-        <v>25</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="3">
-        <v>25</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="3">
-        <v>37</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3">
-        <v>-450</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3">
-        <v>-75</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="3">
-        <v>-60</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B30" s="3">
-        <v>52</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="B31" s="3">
-        <v>49</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B32" s="3">
-        <v>25</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B33" s="3">
-        <v>220</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="3">
-        <v>-550</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="11">
-        <f>SUM(B2:B36)</f>
-        <v>1052</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83ED4AF-7416-4D2A-AA83-6B91C1FCFA43}">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="17">
-        <v>150</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="17">
-        <v>88</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="21">
-        <v>450</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="21">
-        <v>75</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="17">
-        <v>36</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="17">
-        <v>22</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="17">
-        <v>65</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="21">
-        <v>96</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="3">
-        <v>75</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="3">
-        <v>80</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="42">
-        <v>38</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="42"/>
       <c r="C15" s="48"/>
@@ -9394,45 +10004,77 @@
         <v>256</v>
       </c>
       <c r="B24" s="3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="3">
+        <v>52</v>
+      </c>
       <c r="C25" s="9"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
       <c r="C26" s="9"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B27" s="3">
+        <v>220</v>
+      </c>
       <c r="C27" s="9"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>-450</v>
+      </c>
       <c r="C28" s="9"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="3">
+        <v>-220</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" s="3">
+        <v>36</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="11">
-        <f>SUM(B2:B28)</f>
-        <v>1490</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B31" s="11">
+        <f>SUM(B2:B30)</f>
+        <v>1155</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
